--- a/TP Datos Personales/dataset caminatas.xlsx
+++ b/TP Datos Personales/dataset caminatas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC670D31-A40A-467F-B8BA-B9FAAB7C7FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDFFAE-AF05-4E8A-85ED-6978577D2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98E157E9-65A7-4DD4-8F2F-FDCB27AB58B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
   <si>
     <t>Fecha y hora</t>
   </si>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t>Calorías quemadas (Cal)</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>Mediodía</t>
+  </si>
+  <si>
+    <t>Noche</t>
+  </si>
+  <si>
+    <t>Rango de duración</t>
+  </si>
+  <si>
+    <t>Corta</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Larga</t>
+  </si>
+  <si>
+    <t>Intensidad (según BPM)</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Alta</t>
   </si>
 </sst>
 </file>
@@ -480,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467BF5EB-881D-4497-A3E1-70CED7168BB2}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,11 +521,13 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +543,17 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45979.520833333336</v>
       </c>
@@ -528,8 +569,17 @@
       <c r="E2">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45979.902777777781</v>
       </c>
@@ -545,8 +595,17 @@
       <c r="E3">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45980.541666666664</v>
       </c>
@@ -562,8 +621,17 @@
       <c r="E4">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45980.90625</v>
       </c>
@@ -579,8 +647,17 @@
       <c r="E5">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45981.53125</v>
       </c>
@@ -596,8 +673,17 @@
       <c r="E6">
         <v>164</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45981.923611111109</v>
       </c>
@@ -613,8 +699,17 @@
       <c r="E7">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45982.552083333336</v>
       </c>
@@ -630,8 +725,17 @@
       <c r="E8">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45982.895833333336</v>
       </c>
@@ -647,8 +751,17 @@
       <c r="E9">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45983.534722222219</v>
       </c>
@@ -664,8 +777,17 @@
       <c r="E10">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45983.916666666664</v>
       </c>
@@ -681,8 +803,17 @@
       <c r="E11">
         <v>236</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45984.548611111109</v>
       </c>
@@ -698,8 +829,17 @@
       <c r="E12">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45984.902777777781</v>
       </c>
@@ -715,8 +855,17 @@
       <c r="E13">
         <v>189</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45985.524305555555</v>
       </c>
@@ -732,8 +881,17 @@
       <c r="E14">
         <v>157</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45985.920138888891</v>
       </c>
@@ -749,8 +907,17 @@
       <c r="E15">
         <v>261</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45986.555555555555</v>
       </c>
@@ -766,8 +933,17 @@
       <c r="E16">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45986.909722222219</v>
       </c>
@@ -783,8 +959,17 @@
       <c r="E17">
         <v>224</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45987.527777777781</v>
       </c>
@@ -800,8 +985,17 @@
       <c r="E18">
         <v>161</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45987.927083333336</v>
       </c>
@@ -817,8 +1011,17 @@
       <c r="E19">
         <v>247</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45988.545138888891</v>
       </c>
@@ -834,8 +1037,17 @@
       <c r="E20">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45988.909722222219</v>
       </c>
@@ -851,8 +1063,17 @@
       <c r="E21">
         <v>222</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45989.538194444445</v>
       </c>
@@ -868,8 +1089,17 @@
       <c r="E22">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45989.916666666664</v>
       </c>
@@ -885,8 +1115,17 @@
       <c r="E23">
         <v>205</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45990.559027777781</v>
       </c>
@@ -902,8 +1141,17 @@
       <c r="E24">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45990.892361111109</v>
       </c>
@@ -919,8 +1167,17 @@
       <c r="E25">
         <v>166</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45991.534722222219</v>
       </c>
@@ -936,8 +1193,17 @@
       <c r="E26">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45991.923611111109</v>
       </c>
@@ -953,8 +1219,17 @@
       <c r="E27">
         <v>230</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45992.548611111109</v>
       </c>
@@ -970,8 +1245,17 @@
       <c r="E28">
         <v>154</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45992.913194444445</v>
       </c>
@@ -987,8 +1271,17 @@
       <c r="E29">
         <v>251</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45993.541666666664</v>
       </c>
@@ -1003,6 +1296,15 @@
       </c>
       <c r="E30">
         <v>145</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
